--- a/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>productname</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>448b</t>
+  </si>
+  <si>
+    <t>4w5</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,8 +579,8 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>4480</v>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>productname</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>448b</t>
-  </si>
-  <si>
-    <t>4w5</t>
   </si>
 </sst>
 </file>
@@ -550,7 +547,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +576,8 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+      <c r="B3" s="3">
+        <v>4480</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Loan Product/4580-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -129,13 +129,13 @@
     <t>frequencyforrecalculateoutstandingprincipal</t>
   </si>
   <si>
-    <t>4480-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN</t>
-  </si>
-  <si>
-    <t>for testing collection sheets</t>
-  </si>
-  <si>
     <t>Weeks</t>
+  </si>
+  <si>
+    <t>4480-RBI-SUBMITLOANON02JAN-INDCOLLSHEETON09JAN-1st</t>
+  </si>
+  <si>
+    <t>448b</t>
   </si>
 </sst>
 </file>
@@ -547,13 +547,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.125" customWidth="1"/>
-    <col min="2" max="2" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
